--- a/AO-NPE Annotated datasets/ONE_NP_number_mismatch.xlsx
+++ b/AO-NPE Annotated datasets/ONE_NP_number_mismatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayou\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaojimeishaonv/Documents/GitHub/Anaphoric-One-and-NPE/AO-NPE Annotated datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B261D2-AE12-4379-9474-1E8FCFEC9F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE05BC49-30D2-4241-B108-1579E6CE573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BB95A26-FCDE-A243-B2B6-93C9C51BE839}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15720" xr2:uid="{8BB95A26-FCDE-A243-B2B6-93C9C51BE839}"/>
   </bookViews>
   <sheets>
     <sheet name="One_NP_number_mismatch" sheetId="1" r:id="rId1"/>
@@ -28170,7 +28170,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">Green </t>
+      <t>Yellow</t>
     </r>
     <r>
       <rPr>
@@ -28180,7 +28180,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">indicates cases involving singular </t>
+      <t xml:space="preserve"> indicates cases involving plural </t>
     </r>
     <r>
       <rPr>
@@ -28191,7 +28191,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>one</t>
+      <t>ones</t>
     </r>
     <r>
       <rPr>
@@ -28201,9 +28201,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> with a correct plural answer and an incorrect singular answers.</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+      <t xml:space="preserve"> with both correct and incorrect singular answers.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -28215,7 +28215,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>Orange</t>
+      <t xml:space="preserve">Green </t>
     </r>
     <r>
       <rPr>
@@ -28225,7 +28225,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> indicates cases involving singular </t>
+      <t xml:space="preserve">indicates cases involving singular </t>
     </r>
     <r>
       <rPr>
@@ -28246,9 +28246,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> with a correct singular answer and an incorrect plural answers.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t xml:space="preserve"> with a correct plural answer and an incorrect singular answer.</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -28260,7 +28260,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>Pink</t>
+      <t>Orange</t>
     </r>
     <r>
       <rPr>
@@ -28270,7 +28270,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> indicates cases involving plural </t>
+      <t xml:space="preserve"> indicates cases involving singular </t>
     </r>
     <r>
       <rPr>
@@ -28281,7 +28281,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>ones</t>
+      <t>one</t>
     </r>
     <r>
       <rPr>
@@ -28291,7 +28291,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> with both correct plural and correct singular answers.</t>
+      <t xml:space="preserve"> with a correct singular answer and an incorrect plural answer.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -28305,7 +28305,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>Grey</t>
+      <t>Pink</t>
     </r>
     <r>
       <rPr>
@@ -28336,9 +28336,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> with a correct singular answer and an incorrect plural answers.</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+      <t xml:space="preserve"> with correct plural answer and an incorrect singular answer.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -28350,7 +28350,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>Yellow</t>
+      <t>Grey</t>
     </r>
     <r>
       <rPr>
@@ -28381,16 +28381,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"> with both correct and incorrect singular answers.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t xml:space="preserve"> with a correct singular answer and an incorrect plural answer.</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28407,13 +28407,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -28447,7 +28447,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -28495,13 +28495,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="8"/>
@@ -28593,7 +28586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -28708,31 +28701,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -28756,7 +28731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -29074,13 +29049,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9CB093-668A-E149-9095-91235EFE6B78}">
   <dimension ref="A1:S396"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="75" workbookViewId="0">
       <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
@@ -29145,7 +29120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="72">
+    <row r="2" spans="1:19" ht="76">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -29204,7 +29179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="126">
+    <row r="3" spans="1:19" ht="133">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -29263,7 +29238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="35" customFormat="1" ht="108">
+    <row r="4" spans="1:19" s="35" customFormat="1" ht="114">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -29322,7 +29297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="72">
+    <row r="5" spans="1:19" ht="76">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -29381,7 +29356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="6" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A6" s="19">
         <v>6</v>
       </c>
@@ -29440,7 +29415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="108">
+    <row r="7" spans="1:19" ht="114">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -29499,7 +29474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90">
+    <row r="8" spans="1:19" ht="95">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -29558,7 +29533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="144">
+    <row r="9" spans="1:19" ht="152">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -29617,7 +29592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="126">
+    <row r="10" spans="1:19" ht="133">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -29676,7 +29651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="11" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A11" s="19">
         <v>12</v>
       </c>
@@ -29735,7 +29710,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="135">
+    <row r="12" spans="1:19" ht="118">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -29794,7 +29769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="126">
+    <row r="13" spans="1:19" ht="133">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -29853,7 +29828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="126">
+    <row r="14" spans="1:19" ht="133">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -29912,7 +29887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="15" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A15" s="33">
         <v>18</v>
       </c>
@@ -29971,7 +29946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="126">
+    <row r="16" spans="1:19" ht="114">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -30030,7 +30005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="72">
+    <row r="17" spans="1:19" ht="76">
       <c r="A17" s="2">
         <v>22</v>
       </c>
@@ -30089,7 +30064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="18" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A18" s="19">
         <v>23</v>
       </c>
@@ -30148,7 +30123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="130.5">
+    <row r="19" spans="1:19" ht="116">
       <c r="A19" s="2">
         <v>26</v>
       </c>
@@ -30207,7 +30182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="108">
+    <row r="20" spans="1:19" ht="114">
       <c r="A20" s="2">
         <v>27</v>
       </c>
@@ -30266,7 +30241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="21" customFormat="1" ht="126.75">
+    <row r="21" spans="1:19" s="21" customFormat="1" ht="133">
       <c r="A21" s="19">
         <v>28</v>
       </c>
@@ -30325,7 +30300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="90">
+    <row r="22" spans="1:19" ht="95">
       <c r="A22" s="2">
         <v>30</v>
       </c>
@@ -30384,7 +30359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="93">
+    <row r="23" spans="1:19" ht="95">
       <c r="A23" s="2">
         <v>31</v>
       </c>
@@ -30443,7 +30418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="108">
+    <row r="24" spans="1:19" ht="114">
       <c r="A24" s="2">
         <v>32</v>
       </c>
@@ -30502,7 +30477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="72.75">
+    <row r="25" spans="1:19" ht="76">
       <c r="A25" s="2">
         <v>33</v>
       </c>
@@ -30561,7 +30536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="26" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A26" s="19">
         <v>35</v>
       </c>
@@ -30620,7 +30595,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="114.75">
+    <row r="27" spans="1:19" ht="118">
       <c r="A27" s="2">
         <v>36</v>
       </c>
@@ -30679,7 +30654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="90.75">
+    <row r="28" spans="1:19" ht="95">
       <c r="A28" s="2">
         <v>38</v>
       </c>
@@ -30738,7 +30713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="72.75">
+    <row r="29" spans="1:19" ht="76">
       <c r="A29" s="2">
         <v>39</v>
       </c>
@@ -30797,7 +30772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="75">
+    <row r="30" spans="1:19" ht="78">
       <c r="A30" s="2">
         <v>41</v>
       </c>
@@ -30856,7 +30831,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="35" customFormat="1" ht="72">
+    <row r="31" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A31" s="33">
         <v>42</v>
       </c>
@@ -30915,7 +30890,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A32" s="10">
         <v>43</v>
       </c>
@@ -30974,7 +30949,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="94.5">
+    <row r="33" spans="1:19" ht="97">
       <c r="A33" s="2">
         <v>48</v>
       </c>
@@ -31033,7 +31008,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="72.75">
+    <row r="34" spans="1:19" ht="76">
       <c r="A34" s="2">
         <v>49</v>
       </c>
@@ -31092,7 +31067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="35" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A35" s="10">
         <v>50</v>
       </c>
@@ -31151,7 +31126,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="180">
+    <row r="36" spans="1:19" ht="171">
       <c r="A36" s="2">
         <v>51</v>
       </c>
@@ -31210,7 +31185,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="108">
+    <row r="37" spans="1:19" ht="114">
       <c r="A37" s="2">
         <v>52</v>
       </c>
@@ -31269,7 +31244,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="21" customFormat="1" ht="145.5">
+    <row r="38" spans="1:19" s="21" customFormat="1" ht="152">
       <c r="A38" s="19">
         <v>53</v>
       </c>
@@ -31328,7 +31303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="39" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A39" s="19">
         <v>54</v>
       </c>
@@ -31387,7 +31362,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="40" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A40" s="33">
         <v>56</v>
       </c>
@@ -31446,7 +31421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="72">
+    <row r="41" spans="1:19" ht="76">
       <c r="A41" s="2">
         <v>57</v>
       </c>
@@ -31505,7 +31480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="42" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A42" s="19">
         <v>58</v>
       </c>
@@ -31564,7 +31539,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="21" customFormat="1" ht="127.5">
+    <row r="43" spans="1:19" s="21" customFormat="1" ht="133">
       <c r="A43" s="19">
         <v>59</v>
       </c>
@@ -31623,7 +31598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="90.75">
+    <row r="44" spans="1:19" ht="95">
       <c r="A44" s="2">
         <v>60</v>
       </c>
@@ -31682,7 +31657,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="138">
+    <row r="45" spans="1:19" ht="141">
       <c r="A45" s="2">
         <v>61</v>
       </c>
@@ -31741,7 +31716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="73.5">
+    <row r="46" spans="1:19" ht="76">
       <c r="A46" s="2">
         <v>62</v>
       </c>
@@ -31800,7 +31775,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="108">
+    <row r="47" spans="1:19" ht="114">
       <c r="A47" s="2">
         <v>64</v>
       </c>
@@ -31859,7 +31834,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="108">
+    <row r="48" spans="1:19" ht="114">
       <c r="A48" s="2">
         <v>65</v>
       </c>
@@ -31918,7 +31893,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="35" customFormat="1" ht="108">
+    <row r="49" spans="1:19" s="35" customFormat="1" ht="114">
       <c r="A49" s="33">
         <v>67</v>
       </c>
@@ -31977,7 +31952,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="126">
+    <row r="50" spans="1:19" ht="116">
       <c r="A50" s="2">
         <v>69</v>
       </c>
@@ -32036,7 +32011,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="96">
+    <row r="51" spans="1:19" ht="99">
       <c r="A51" s="2">
         <v>70</v>
       </c>
@@ -32095,7 +32070,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="90">
+    <row r="52" spans="1:19" ht="95">
       <c r="A52" s="2">
         <v>72</v>
       </c>
@@ -32154,7 +32129,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="53" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A53" s="10">
         <v>73</v>
       </c>
@@ -32213,7 +32188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="162">
+    <row r="54" spans="1:19" ht="171">
       <c r="A54" s="2">
         <v>74</v>
       </c>
@@ -32272,7 +32247,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="90">
+    <row r="55" spans="1:19" ht="95">
       <c r="A55" s="2">
         <v>75</v>
       </c>
@@ -32331,7 +32306,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="56" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A56" s="33">
         <v>76</v>
       </c>
@@ -32390,7 +32365,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="108.75">
+    <row r="57" spans="1:19" ht="114">
       <c r="A57" s="2">
         <v>77</v>
       </c>
@@ -32449,7 +32424,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="132">
+    <row r="58" spans="1:19" ht="116">
       <c r="A58" s="2">
         <v>79</v>
       </c>
@@ -32508,7 +32483,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="21" customFormat="1" ht="75">
+    <row r="59" spans="1:19" s="21" customFormat="1" ht="78">
       <c r="A59" s="19">
         <v>80</v>
       </c>
@@ -32567,7 +32542,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="60" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A60" s="24">
         <v>83</v>
       </c>
@@ -32626,7 +32601,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="35" customFormat="1" ht="72">
+    <row r="61" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A61" s="33">
         <v>84</v>
       </c>
@@ -32685,7 +32660,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="35" customFormat="1" ht="93.75">
+    <row r="62" spans="1:19" s="35" customFormat="1" ht="97">
       <c r="A62" s="33">
         <v>85</v>
       </c>
@@ -32744,7 +32719,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="92.25">
+    <row r="63" spans="1:19" ht="95">
       <c r="A63" s="2">
         <v>86</v>
       </c>
@@ -32803,7 +32778,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="90.75">
+    <row r="64" spans="1:19" ht="95">
       <c r="A64" s="2">
         <v>88</v>
       </c>
@@ -32862,7 +32837,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="108">
+    <row r="65" spans="1:19" ht="114">
       <c r="A65" s="2">
         <v>89</v>
       </c>
@@ -32921,7 +32896,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="66" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A66" s="19">
         <v>90</v>
       </c>
@@ -32980,7 +32955,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="35" customFormat="1" ht="93.75">
+    <row r="67" spans="1:19" s="35" customFormat="1" ht="97">
       <c r="A67" s="33">
         <v>91</v>
       </c>
@@ -33039,7 +33014,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="90">
+    <row r="68" spans="1:19" ht="95">
       <c r="A68" s="2">
         <v>92</v>
       </c>
@@ -33098,7 +33073,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="69" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A69" s="10">
         <v>93</v>
       </c>
@@ -33157,7 +33132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="21" customFormat="1" ht="93">
+    <row r="70" spans="1:19" s="21" customFormat="1" ht="78">
       <c r="A70" s="19">
         <v>94</v>
       </c>
@@ -33216,7 +33191,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="108">
+    <row r="71" spans="1:19" ht="114">
       <c r="A71" s="2">
         <v>95</v>
       </c>
@@ -33275,7 +33250,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="72" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A72" s="19">
         <v>97</v>
       </c>
@@ -33334,7 +33309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="108.75">
+    <row r="73" spans="1:19" ht="114">
       <c r="A73" s="2">
         <v>98</v>
       </c>
@@ -33393,7 +33368,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="90">
+    <row r="74" spans="1:19" ht="76">
       <c r="A74" s="2">
         <v>99</v>
       </c>
@@ -33452,7 +33427,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="91.5">
+    <row r="75" spans="1:19" ht="95">
       <c r="A75" s="2">
         <v>100</v>
       </c>
@@ -33511,7 +33486,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="108">
+    <row r="76" spans="1:19" ht="95">
       <c r="A76" s="2">
         <v>102</v>
       </c>
@@ -33570,7 +33545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="108.75">
+    <row r="77" spans="1:19" ht="114">
       <c r="A77" s="2">
         <v>103</v>
       </c>
@@ -33629,7 +33604,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="90">
+    <row r="78" spans="1:19" ht="95">
       <c r="A78" s="2">
         <v>104</v>
       </c>
@@ -33688,7 +33663,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="90">
+    <row r="79" spans="1:19" ht="95">
       <c r="A79" s="2">
         <v>106</v>
       </c>
@@ -33747,7 +33722,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="21" customFormat="1" ht="168">
+    <row r="80" spans="1:19" s="21" customFormat="1" ht="175">
       <c r="A80" s="19">
         <v>107</v>
       </c>
@@ -33806,7 +33781,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="90">
+    <row r="81" spans="1:19" ht="95">
       <c r="A81" s="2">
         <v>108</v>
       </c>
@@ -33865,7 +33840,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="114.75">
+    <row r="82" spans="1:19" ht="97">
       <c r="A82" s="2">
         <v>109</v>
       </c>
@@ -33924,7 +33899,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="90">
+    <row r="83" spans="1:19" ht="95">
       <c r="A83" s="2">
         <v>110</v>
       </c>
@@ -33983,7 +33958,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="129.75">
+    <row r="84" spans="1:19" ht="135">
       <c r="A84" s="2">
         <v>111</v>
       </c>
@@ -34042,7 +34017,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="72">
+    <row r="85" spans="1:19" ht="76">
       <c r="A85" s="2">
         <v>112</v>
       </c>
@@ -34101,7 +34076,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="108">
+    <row r="86" spans="1:19" ht="114">
       <c r="A86" s="2">
         <v>113</v>
       </c>
@@ -34160,7 +34135,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="35" customFormat="1" ht="92.25">
+    <row r="87" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A87" s="33">
         <v>114</v>
       </c>
@@ -34219,7 +34194,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="90">
+    <row r="88" spans="1:19" ht="95">
       <c r="A88" s="2">
         <v>116</v>
       </c>
@@ -34278,7 +34253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="111.75">
+    <row r="89" spans="1:19" ht="116">
       <c r="A89" s="2">
         <v>117</v>
       </c>
@@ -34337,7 +34312,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="108">
+    <row r="90" spans="1:19" ht="114">
       <c r="A90" s="2">
         <v>118</v>
       </c>
@@ -34396,7 +34371,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="108">
+    <row r="91" spans="1:19" ht="114">
       <c r="A91" s="2">
         <v>119</v>
       </c>
@@ -34455,7 +34430,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="72">
+    <row r="92" spans="1:19" ht="76">
       <c r="A92" s="2">
         <v>120</v>
       </c>
@@ -34514,7 +34489,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="93" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A93" s="10">
         <v>121</v>
       </c>
@@ -34573,7 +34548,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="90.75">
+    <row r="94" spans="1:19" ht="95">
       <c r="A94" s="2">
         <v>122</v>
       </c>
@@ -34632,7 +34607,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="90">
+    <row r="95" spans="1:19" ht="95">
       <c r="A95" s="2">
         <v>123</v>
       </c>
@@ -34691,7 +34666,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="96" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A96" s="10">
         <v>124</v>
       </c>
@@ -34750,7 +34725,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="118.5">
+    <row r="97" spans="1:19" ht="120">
       <c r="A97" s="2">
         <v>125</v>
       </c>
@@ -34809,7 +34784,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="90">
+    <row r="98" spans="1:19" ht="95">
       <c r="A98" s="2">
         <v>126</v>
       </c>
@@ -34868,7 +34843,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" ht="91.5">
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A99" s="10">
         <v>128</v>
       </c>
@@ -34927,7 +34902,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="72">
+    <row r="100" spans="1:19" ht="76">
       <c r="A100" s="2">
         <v>129</v>
       </c>
@@ -34986,7 +34961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="93">
+    <row r="101" spans="1:19" ht="97">
       <c r="A101" s="2">
         <v>130</v>
       </c>
@@ -35045,7 +35020,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="21" customFormat="1" ht="112.5">
+    <row r="102" spans="1:19" s="21" customFormat="1" ht="116">
       <c r="A102" s="19">
         <v>131</v>
       </c>
@@ -35104,7 +35079,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="108">
+    <row r="103" spans="1:19" ht="114">
       <c r="A103" s="2">
         <v>132</v>
       </c>
@@ -35163,7 +35138,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="90">
+    <row r="104" spans="1:19" ht="95">
       <c r="A104" s="2">
         <v>134</v>
       </c>
@@ -35222,7 +35197,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="14" customFormat="1" ht="90">
+    <row r="105" spans="1:19" s="14" customFormat="1" ht="95">
       <c r="A105" s="13">
         <v>135</v>
       </c>
@@ -35281,7 +35256,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="108">
+    <row r="106" spans="1:19" ht="114">
       <c r="A106" s="2">
         <v>136</v>
       </c>
@@ -35340,7 +35315,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="114">
+    <row r="107" spans="1:19" ht="116">
       <c r="A107" s="2">
         <v>137</v>
       </c>
@@ -35399,7 +35374,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="117">
+    <row r="108" spans="1:19" ht="118">
       <c r="A108" s="2">
         <v>138</v>
       </c>
@@ -35458,7 +35433,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="108">
+    <row r="109" spans="1:19" ht="114">
       <c r="A109" s="2">
         <v>139</v>
       </c>
@@ -35517,7 +35492,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="110" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A110" s="19">
         <v>140</v>
       </c>
@@ -35576,7 +35551,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="21" customFormat="1" ht="171">
+    <row r="111" spans="1:19" s="21" customFormat="1" ht="175">
       <c r="A111" s="19">
         <v>141</v>
       </c>
@@ -35635,7 +35610,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="90">
+    <row r="112" spans="1:19" ht="95">
       <c r="A112" s="2">
         <v>143</v>
       </c>
@@ -35694,7 +35669,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="91.5">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A113" s="10">
         <v>144</v>
       </c>
@@ -35753,7 +35728,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="126">
+    <row r="114" spans="1:19" ht="114">
       <c r="A114" s="2">
         <v>146</v>
       </c>
@@ -35812,7 +35787,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="115" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A115" s="19">
         <v>147</v>
       </c>
@@ -35871,7 +35846,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="90">
+    <row r="116" spans="1:19" ht="95">
       <c r="A116" s="2">
         <v>148</v>
       </c>
@@ -35930,7 +35905,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="117" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A117" s="19">
         <v>150</v>
       </c>
@@ -35989,7 +35964,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="108">
+    <row r="118" spans="1:19" ht="95">
       <c r="A118" s="2">
         <v>151</v>
       </c>
@@ -36048,7 +36023,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="152.25">
+    <row r="119" spans="1:19" ht="156">
       <c r="A119" s="2">
         <v>152</v>
       </c>
@@ -36107,7 +36082,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="108.75">
+    <row r="120" spans="1:19" ht="114">
       <c r="A120" s="2">
         <v>153</v>
       </c>
@@ -36166,7 +36141,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="111.75">
+    <row r="121" spans="1:19" ht="116">
       <c r="A121" s="2">
         <v>155</v>
       </c>
@@ -36225,7 +36200,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="90">
+    <row r="122" spans="1:19" ht="95">
       <c r="A122" s="2">
         <v>156</v>
       </c>
@@ -36284,7 +36259,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="108">
+    <row r="123" spans="1:19" ht="114">
       <c r="A123" s="2">
         <v>157</v>
       </c>
@@ -36343,7 +36318,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="21" customFormat="1" ht="162">
+    <row r="124" spans="1:19" s="21" customFormat="1" ht="152">
       <c r="A124" s="19">
         <v>158</v>
       </c>
@@ -36402,7 +36377,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="14" customFormat="1" ht="126">
+    <row r="125" spans="1:19" s="14" customFormat="1" ht="114">
       <c r="A125" s="13">
         <v>159</v>
       </c>
@@ -36461,7 +36436,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="162">
+    <row r="126" spans="1:19" ht="171">
       <c r="A126" s="2">
         <v>161</v>
       </c>
@@ -36520,7 +36495,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="162">
+    <row r="127" spans="1:19" ht="171">
       <c r="A127" s="2">
         <v>162</v>
       </c>
@@ -36579,7 +36554,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="14" customFormat="1" ht="126">
+    <row r="128" spans="1:19" s="14" customFormat="1" ht="114">
       <c r="A128" s="13">
         <v>163</v>
       </c>
@@ -36638,7 +36613,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="126">
+    <row r="129" spans="1:19" ht="133">
       <c r="A129" s="2">
         <v>164</v>
       </c>
@@ -36697,7 +36672,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="126">
+    <row r="130" spans="1:19" ht="133">
       <c r="A130" s="2">
         <v>165</v>
       </c>
@@ -36756,7 +36731,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="165.75">
+    <row r="131" spans="1:19" ht="173">
       <c r="A131" s="2">
         <v>166</v>
       </c>
@@ -36815,7 +36790,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="108">
+    <row r="132" spans="1:19" ht="114">
       <c r="A132" s="2">
         <v>167</v>
       </c>
@@ -36874,7 +36849,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="108">
+    <row r="133" spans="1:19" ht="114">
       <c r="A133" s="2">
         <v>168</v>
       </c>
@@ -36933,7 +36908,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="108">
+    <row r="134" spans="1:19" ht="114">
       <c r="A134" s="2">
         <v>170</v>
       </c>
@@ -36992,7 +36967,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="108">
+    <row r="135" spans="1:19" ht="114">
       <c r="A135" s="2">
         <v>171</v>
       </c>
@@ -37051,7 +37026,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:19" s="14" customFormat="1" ht="90">
+    <row r="136" spans="1:19" s="14" customFormat="1" ht="95">
       <c r="A136" s="13">
         <v>173</v>
       </c>
@@ -37110,7 +37085,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="144">
+    <row r="137" spans="1:19" ht="152">
       <c r="A137" s="2">
         <v>174</v>
       </c>
@@ -37169,7 +37144,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="138" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="138" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A138" s="33">
         <v>175</v>
       </c>
@@ -37228,7 +37203,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="35" customFormat="1" ht="75.75">
+    <row r="139" spans="1:19" s="35" customFormat="1" ht="78">
       <c r="A139" s="33">
         <v>176</v>
       </c>
@@ -37287,7 +37262,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="126">
+    <row r="140" spans="1:19" ht="133">
       <c r="A140" s="2">
         <v>177</v>
       </c>
@@ -37346,7 +37321,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="90">
+    <row r="141" spans="1:19" ht="95">
       <c r="A141" s="2">
         <v>178</v>
       </c>
@@ -37405,7 +37380,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="126">
+    <row r="142" spans="1:19" ht="133">
       <c r="A142" s="2">
         <v>179</v>
       </c>
@@ -37464,7 +37439,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="143" spans="1:19" s="14" customFormat="1" ht="72">
+    <row r="143" spans="1:19" s="14" customFormat="1" ht="76">
       <c r="A143" s="13">
         <v>180</v>
       </c>
@@ -37523,7 +37498,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="144" spans="1:19" s="27" customFormat="1" ht="126">
+    <row r="144" spans="1:19" s="27" customFormat="1" ht="114">
       <c r="A144" s="26">
         <v>181</v>
       </c>
@@ -37582,7 +37557,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="144">
+    <row r="145" spans="1:19" ht="152">
       <c r="A145" s="2">
         <v>182</v>
       </c>
@@ -37641,7 +37616,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="144">
+    <row r="146" spans="1:19" ht="152">
       <c r="A146" s="2">
         <v>183</v>
       </c>
@@ -37700,7 +37675,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="90">
+    <row r="147" spans="1:19" ht="95">
       <c r="A147" s="2">
         <v>184</v>
       </c>
@@ -37759,7 +37734,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="126">
+    <row r="148" spans="1:19" ht="133">
       <c r="A148" s="2">
         <v>185</v>
       </c>
@@ -37818,7 +37793,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="108">
+    <row r="149" spans="1:19" ht="114">
       <c r="A149" s="2">
         <v>186</v>
       </c>
@@ -37877,7 +37852,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="138">
+    <row r="150" spans="1:19" ht="139">
       <c r="A150" s="2">
         <v>187</v>
       </c>
@@ -37936,7 +37911,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="90">
+    <row r="151" spans="1:19" ht="95">
       <c r="A151" s="2">
         <v>189</v>
       </c>
@@ -37995,7 +37970,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="152" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="152" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A152" s="19">
         <v>190</v>
       </c>
@@ -38054,7 +38029,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="108">
+    <row r="153" spans="1:19" ht="114">
       <c r="A153" s="2">
         <v>191</v>
       </c>
@@ -38113,7 +38088,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="108">
+    <row r="154" spans="1:19" ht="114">
       <c r="A154" s="2">
         <v>192</v>
       </c>
@@ -38172,7 +38147,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="108">
+    <row r="155" spans="1:19" ht="114">
       <c r="A155" s="2">
         <v>193</v>
       </c>
@@ -38231,7 +38206,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A156" s="10">
         <v>194</v>
       </c>
@@ -38290,7 +38265,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="157" spans="1:19" s="14" customFormat="1" ht="108">
+    <row r="157" spans="1:19" s="14" customFormat="1" ht="114">
       <c r="A157" s="13">
         <v>195</v>
       </c>
@@ -38349,7 +38324,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="108">
+    <row r="158" spans="1:19" ht="95">
       <c r="A158" s="2">
         <v>196</v>
       </c>
@@ -38408,7 +38383,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="126">
+    <row r="159" spans="1:19" ht="133">
       <c r="A159" s="2">
         <v>197</v>
       </c>
@@ -38467,7 +38442,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="126">
+    <row r="160" spans="1:19" ht="133">
       <c r="A160" s="2">
         <v>198</v>
       </c>
@@ -38526,7 +38501,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="21" customFormat="1" ht="111">
+    <row r="161" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A161" s="19">
         <v>199</v>
       </c>
@@ -38585,7 +38560,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="126">
+    <row r="162" spans="1:19" ht="133">
       <c r="A162" s="2">
         <v>200</v>
       </c>
@@ -38644,7 +38619,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="126">
+    <row r="163" spans="1:19" ht="114">
       <c r="A163" s="2">
         <v>201</v>
       </c>
@@ -38703,7 +38678,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="126">
+    <row r="164" spans="1:19" ht="133">
       <c r="A164" s="2">
         <v>202</v>
       </c>
@@ -38762,7 +38737,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="126">
+    <row r="165" spans="1:19" ht="133">
       <c r="A165" s="2">
         <v>204</v>
       </c>
@@ -38821,7 +38796,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="111">
+    <row r="166" spans="1:19" ht="97">
       <c r="A166" s="2">
         <v>205</v>
       </c>
@@ -38880,7 +38855,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="111">
+    <row r="167" spans="1:19" ht="116">
       <c r="A167" s="2">
         <v>206</v>
       </c>
@@ -38939,7 +38914,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="111">
+    <row r="168" spans="1:19" ht="116">
       <c r="A168" s="2">
         <v>207</v>
       </c>
@@ -38998,7 +38973,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="111.75">
+    <row r="169" spans="1:19" ht="116">
       <c r="A169" s="2">
         <v>208</v>
       </c>
@@ -39057,7 +39032,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="108">
+    <row r="170" spans="1:19" ht="114">
       <c r="A170" s="2">
         <v>209</v>
       </c>
@@ -39116,7 +39091,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="171" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A171" s="10">
         <v>210</v>
       </c>
@@ -39175,7 +39150,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="111">
+    <row r="172" spans="1:19" ht="97">
       <c r="A172" s="2">
         <v>212</v>
       </c>
@@ -39234,7 +39209,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="113.25">
+    <row r="173" spans="1:19" ht="116">
       <c r="A173" s="2">
         <v>213</v>
       </c>
@@ -39293,7 +39268,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="144">
+    <row r="174" spans="1:19" ht="137">
       <c r="A174" s="2">
         <v>214</v>
       </c>
@@ -39352,7 +39327,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="108">
+    <row r="175" spans="1:19" ht="114">
       <c r="A175" s="2">
         <v>215</v>
       </c>
@@ -39411,7 +39386,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="108">
+    <row r="176" spans="1:19" ht="114">
       <c r="A176" s="2">
         <v>216</v>
       </c>
@@ -39470,7 +39445,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="114.75">
+    <row r="177" spans="1:19" ht="118">
       <c r="A177" s="2">
         <v>217</v>
       </c>
@@ -39529,7 +39504,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="178" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="178" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A178" s="19">
         <v>219</v>
       </c>
@@ -39588,7 +39563,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="108">
+    <row r="179" spans="1:19" ht="114">
       <c r="A179" s="2">
         <v>221</v>
       </c>
@@ -39647,7 +39622,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="180" spans="1:19" s="25" customFormat="1" ht="93.75">
+    <row r="180" spans="1:19" s="25" customFormat="1" ht="97">
       <c r="A180" s="24">
         <v>222</v>
       </c>
@@ -39706,7 +39681,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="93.75">
+    <row r="181" spans="1:19" ht="97">
       <c r="A181" s="2">
         <v>223</v>
       </c>
@@ -39765,7 +39740,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="116.25">
+    <row r="182" spans="1:19" ht="118">
       <c r="A182" s="2">
         <v>224</v>
       </c>
@@ -39824,7 +39799,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="183" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A183" s="33">
         <v>225</v>
       </c>
@@ -39883,7 +39858,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="108">
+    <row r="184" spans="1:19" ht="114">
       <c r="A184" s="2">
         <v>226</v>
       </c>
@@ -39942,7 +39917,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="126">
+    <row r="185" spans="1:19" ht="114">
       <c r="A185" s="2">
         <v>227</v>
       </c>
@@ -40001,7 +39976,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="108">
+    <row r="186" spans="1:19" ht="114">
       <c r="A186" s="2">
         <v>228</v>
       </c>
@@ -40060,7 +40035,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="72.75">
+    <row r="187" spans="1:19" ht="76">
       <c r="A187" s="2">
         <v>229</v>
       </c>
@@ -40119,7 +40094,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="112.5">
+    <row r="188" spans="1:19" ht="116">
       <c r="A188" s="2">
         <v>230</v>
       </c>
@@ -40178,7 +40153,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="144">
+    <row r="189" spans="1:19" ht="152">
       <c r="A189" s="2">
         <v>231</v>
       </c>
@@ -40237,7 +40212,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="90">
+    <row r="190" spans="1:19" ht="78">
       <c r="A190" s="2">
         <v>232</v>
       </c>
@@ -40296,7 +40271,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="191" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="191" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A191" s="19">
         <v>233</v>
       </c>
@@ -40355,7 +40330,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="27" customFormat="1" ht="75.75">
+    <row r="192" spans="1:19" s="27" customFormat="1" ht="78">
       <c r="A192" s="26">
         <v>234</v>
       </c>
@@ -40414,7 +40389,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="90">
+    <row r="193" spans="1:19" ht="95">
       <c r="A193" s="2">
         <v>235</v>
       </c>
@@ -40473,7 +40448,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="194" spans="1:19" s="35" customFormat="1" ht="150">
+    <row r="194" spans="1:19" s="35" customFormat="1" ht="135">
       <c r="A194" s="33">
         <v>236</v>
       </c>
@@ -40532,7 +40507,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="90.75">
+    <row r="195" spans="1:19" ht="95">
       <c r="A195" s="2">
         <v>237</v>
       </c>
@@ -40591,7 +40566,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="196" spans="1:19" s="21" customFormat="1" ht="93.75">
+    <row r="196" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A196" s="19">
         <v>239</v>
       </c>
@@ -40650,7 +40625,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="72">
+    <row r="197" spans="1:19" ht="76">
       <c r="A197" s="2">
         <v>240</v>
       </c>
@@ -40709,7 +40684,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="90">
+    <row r="198" spans="1:19" ht="95">
       <c r="A198" s="2">
         <v>241</v>
       </c>
@@ -40768,7 +40743,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="199" spans="1:19" s="11" customFormat="1" ht="134.25">
+    <row r="199" spans="1:19" s="11" customFormat="1" ht="137">
       <c r="A199" s="10">
         <v>243</v>
       </c>
@@ -40827,7 +40802,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="129">
+    <row r="200" spans="1:19" ht="135">
       <c r="A200" s="2">
         <v>244</v>
       </c>
@@ -40886,7 +40861,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="201" spans="1:19" s="21" customFormat="1" ht="126.75">
+    <row r="201" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A201" s="19">
         <v>245</v>
       </c>
@@ -40945,7 +40920,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="155.25">
+    <row r="202" spans="1:19" ht="139">
       <c r="A202" s="2">
         <v>246</v>
       </c>
@@ -41004,7 +40979,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="203" spans="1:19" s="35" customFormat="1" ht="126">
+    <row r="203" spans="1:19" s="35" customFormat="1" ht="133">
       <c r="A203" s="33">
         <v>247</v>
       </c>
@@ -41063,7 +41038,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="204" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="204" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A204" s="10">
         <v>248</v>
       </c>
@@ -41122,7 +41097,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="205" spans="1:19" s="35" customFormat="1" ht="92.25">
+    <row r="205" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A205" s="33">
         <v>249</v>
       </c>
@@ -41181,7 +41156,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="206" spans="1:19" s="35" customFormat="1" ht="108">
+    <row r="206" spans="1:19" s="35" customFormat="1" ht="114">
       <c r="A206" s="33">
         <v>250</v>
       </c>
@@ -41240,7 +41215,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="150">
+    <row r="207" spans="1:19" ht="156">
       <c r="A207" s="2">
         <v>251</v>
       </c>
@@ -41299,7 +41274,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="108">
+    <row r="208" spans="1:19" ht="114">
       <c r="A208" s="2">
         <v>252</v>
       </c>
@@ -41358,7 +41333,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="129.75">
+    <row r="209" spans="1:19" ht="135">
       <c r="A209" s="2">
         <v>253</v>
       </c>
@@ -41417,7 +41392,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="90">
+    <row r="210" spans="1:19" ht="95">
       <c r="A210" s="2">
         <v>254</v>
       </c>
@@ -41476,7 +41451,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="211" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="211" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A211" s="33">
         <v>255</v>
       </c>
@@ -41535,7 +41510,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="110.25">
+    <row r="212" spans="1:19" ht="114">
       <c r="A212" s="2">
         <v>256</v>
       </c>
@@ -41594,7 +41569,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:19" s="35" customFormat="1" ht="162">
+    <row r="213" spans="1:19" s="35" customFormat="1" ht="152">
       <c r="A213" s="33">
         <v>257</v>
       </c>
@@ -41653,7 +41628,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="108">
+    <row r="214" spans="1:19" ht="114">
       <c r="A214" s="2">
         <v>258</v>
       </c>
@@ -41712,7 +41687,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="109.5">
+    <row r="215" spans="1:19" ht="114">
       <c r="A215" s="2">
         <v>259</v>
       </c>
@@ -41771,7 +41746,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="112.5">
+    <row r="216" spans="1:19" ht="116">
       <c r="A216" s="2">
         <v>260</v>
       </c>
@@ -41830,7 +41805,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="90.75">
+    <row r="217" spans="1:19" ht="95">
       <c r="A217" s="2">
         <v>261</v>
       </c>
@@ -41889,7 +41864,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="218" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="218" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A218" s="19">
         <v>262</v>
       </c>
@@ -41948,7 +41923,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="219" spans="1:19" s="35" customFormat="1" ht="108.75">
+    <row r="219" spans="1:19" s="35" customFormat="1" ht="114">
       <c r="A219" s="33">
         <v>263</v>
       </c>
@@ -42007,7 +41982,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="220" spans="1:19" s="21" customFormat="1" ht="94.5">
+    <row r="220" spans="1:19" s="21" customFormat="1" ht="97">
       <c r="A220" s="19">
         <v>264</v>
       </c>
@@ -42066,7 +42041,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="94.5">
+    <row r="221" spans="1:19" ht="97">
       <c r="A221" s="2">
         <v>265</v>
       </c>
@@ -42125,7 +42100,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="222" spans="1:19" s="11" customFormat="1" ht="91.5">
+    <row r="222" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A222" s="10">
         <v>266</v>
       </c>
@@ -42184,7 +42159,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="223" spans="1:19" s="21" customFormat="1" ht="111">
+    <row r="223" spans="1:19" s="21" customFormat="1" ht="116">
       <c r="A223" s="19">
         <v>267</v>
       </c>
@@ -42243,7 +42218,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="126">
+    <row r="224" spans="1:19" ht="133">
       <c r="A224" s="2">
         <v>268</v>
       </c>
@@ -42302,7 +42277,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="225" spans="1:19" s="25" customFormat="1" ht="126">
+    <row r="225" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A225" s="24">
         <v>269</v>
       </c>
@@ -42361,7 +42336,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="226" spans="1:19" s="35" customFormat="1" ht="93.75">
+    <row r="226" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A226" s="33">
         <v>270</v>
       </c>
@@ -42420,7 +42395,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="90">
+    <row r="227" spans="1:19" ht="95">
       <c r="A227" s="2">
         <v>271</v>
       </c>
@@ -42479,7 +42454,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="81">
+    <row r="228" spans="1:19" ht="82">
       <c r="A228" s="2">
         <v>272</v>
       </c>
@@ -42538,7 +42513,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="126">
+    <row r="229" spans="1:19" ht="133">
       <c r="A229" s="2">
         <v>273</v>
       </c>
@@ -42597,7 +42572,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="230" spans="1:19" s="11" customFormat="1" ht="114">
+    <row r="230" spans="1:19" s="11" customFormat="1" ht="118">
       <c r="A230" s="10">
         <v>274</v>
       </c>
@@ -42656,7 +42631,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="111">
+    <row r="231" spans="1:19" ht="116">
       <c r="A231" s="2">
         <v>275</v>
       </c>
@@ -42715,7 +42690,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="112.5">
+    <row r="232" spans="1:19" ht="116">
       <c r="A232" s="2">
         <v>276</v>
       </c>
@@ -42774,7 +42749,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="111">
+    <row r="233" spans="1:19" ht="116">
       <c r="A233" s="2">
         <v>277</v>
       </c>
@@ -42833,7 +42808,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="234" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="234" spans="1:19" s="11" customFormat="1" ht="116">
       <c r="A234" s="10">
         <v>278</v>
       </c>
@@ -42892,7 +42867,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="235" spans="1:19" s="35" customFormat="1" ht="144">
+    <row r="235" spans="1:19" s="35" customFormat="1" ht="152">
       <c r="A235" s="33">
         <v>279</v>
       </c>
@@ -42951,7 +42926,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="93">
+    <row r="236" spans="1:19" ht="97">
       <c r="A236" s="2">
         <v>280</v>
       </c>
@@ -43010,7 +42985,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="91.5">
+    <row r="237" spans="1:19" ht="95">
       <c r="A237" s="2">
         <v>281</v>
       </c>
@@ -43069,7 +43044,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="144">
+    <row r="238" spans="1:19" ht="152">
       <c r="A238" s="2">
         <v>282</v>
       </c>
@@ -43128,7 +43103,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="96.75">
+    <row r="239" spans="1:19" ht="99">
       <c r="A239" s="2">
         <v>283</v>
       </c>
@@ -43187,7 +43162,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="144.75">
+    <row r="240" spans="1:19" ht="152">
       <c r="A240" s="2">
         <v>284</v>
       </c>
@@ -43246,7 +43221,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="241" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="241" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A241" s="10">
         <v>285</v>
       </c>
@@ -43305,7 +43280,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="242" spans="1:19" s="21" customFormat="1" ht="162">
+    <row r="242" spans="1:19" s="21" customFormat="1" ht="171">
       <c r="A242" s="19">
         <v>286</v>
       </c>
@@ -43364,7 +43339,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="243" spans="1:19" s="35" customFormat="1" ht="126">
+    <row r="243" spans="1:19" s="35" customFormat="1" ht="133">
       <c r="A243" s="33">
         <v>287</v>
       </c>
@@ -43423,7 +43398,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="244" spans="1:19" s="21" customFormat="1" ht="146.25">
+    <row r="244" spans="1:19" s="21" customFormat="1" ht="133">
       <c r="A244" s="19">
         <v>288</v>
       </c>
@@ -43482,7 +43457,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="108">
+    <row r="245" spans="1:19" ht="114">
       <c r="A245" s="2">
         <v>289</v>
       </c>
@@ -43541,7 +43516,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="246" spans="1:19" s="35" customFormat="1" ht="93.75">
+    <row r="246" spans="1:19" s="35" customFormat="1" ht="97">
       <c r="A246" s="33">
         <v>291</v>
       </c>
@@ -43600,7 +43575,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="247" spans="1:19" s="35" customFormat="1" ht="108.75">
+    <row r="247" spans="1:19" s="35" customFormat="1" ht="114">
       <c r="A247" s="33">
         <v>292</v>
       </c>
@@ -43659,7 +43634,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="248" spans="1:19" s="35" customFormat="1" ht="144">
+    <row r="248" spans="1:19" s="35" customFormat="1" ht="133">
       <c r="A248" s="33">
         <v>293</v>
       </c>
@@ -43718,7 +43693,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="249" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="249" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A249" s="33">
         <v>294</v>
       </c>
@@ -43777,7 +43752,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="250" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="250" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A250" s="19">
         <v>295</v>
       </c>
@@ -43836,7 +43811,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="251" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="251" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A251" s="10">
         <v>296</v>
       </c>
@@ -43895,7 +43870,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="90">
+    <row r="252" spans="1:19" ht="95">
       <c r="A252" s="2">
         <v>297</v>
       </c>
@@ -43954,7 +43929,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="90">
+    <row r="253" spans="1:19" ht="95">
       <c r="A253" s="2">
         <v>298</v>
       </c>
@@ -44013,7 +43988,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="90">
+    <row r="254" spans="1:19" ht="95">
       <c r="A254" s="2">
         <v>299</v>
       </c>
@@ -44072,7 +44047,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="255" spans="1:19" s="21" customFormat="1" ht="108">
+    <row r="255" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A255" s="19">
         <v>300</v>
       </c>
@@ -44131,7 +44106,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="256" spans="1:19" s="21" customFormat="1" ht="162">
+    <row r="256" spans="1:19" s="21" customFormat="1" ht="171">
       <c r="A256" s="19">
         <v>301</v>
       </c>
@@ -44190,7 +44165,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="257" spans="1:19" s="21" customFormat="1" ht="144">
+    <row r="257" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A257" s="19">
         <v>303</v>
       </c>
@@ -44249,7 +44224,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="258" spans="1:19" s="21" customFormat="1" ht="90">
+    <row r="258" spans="1:19" s="21" customFormat="1" ht="95">
       <c r="A258" s="19">
         <v>304</v>
       </c>
@@ -44308,7 +44283,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="90">
+    <row r="259" spans="1:19" ht="95">
       <c r="A259" s="2">
         <v>306</v>
       </c>
@@ -44367,7 +44342,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="108">
+    <row r="260" spans="1:19" ht="114">
       <c r="A260" s="2">
         <v>307</v>
       </c>
@@ -44426,7 +44401,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="126">
+    <row r="261" spans="1:19" ht="114">
       <c r="A261" s="2">
         <v>308</v>
       </c>
@@ -44485,7 +44460,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="262" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="262" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A262" s="33">
         <v>309</v>
       </c>
@@ -44544,7 +44519,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="126">
+    <row r="263" spans="1:19" ht="133">
       <c r="A263" s="2">
         <v>310</v>
       </c>
@@ -44603,7 +44578,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="264" spans="1:19" s="35" customFormat="1" ht="72">
+    <row r="264" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A264" s="33">
         <v>311</v>
       </c>
@@ -44662,7 +44637,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="265" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="265" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A265" s="10">
         <v>312</v>
       </c>
@@ -44721,7 +44696,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="266" spans="1:19" s="21" customFormat="1" ht="126">
+    <row r="266" spans="1:19" s="21" customFormat="1" ht="114">
       <c r="A266" s="19">
         <v>313</v>
       </c>
@@ -44780,7 +44755,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="90">
+    <row r="267" spans="1:19" ht="76">
       <c r="A267" s="2">
         <v>315</v>
       </c>
@@ -44839,7 +44814,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="90">
+    <row r="268" spans="1:19" ht="95">
       <c r="A268" s="2">
         <v>316</v>
       </c>
@@ -44898,7 +44873,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="144">
+    <row r="269" spans="1:19" ht="152">
       <c r="A269" s="2">
         <v>317</v>
       </c>
@@ -44957,7 +44932,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="144">
+    <row r="270" spans="1:19" ht="152">
       <c r="A270" s="2">
         <v>318</v>
       </c>
@@ -45016,7 +44991,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="144">
+    <row r="271" spans="1:19" ht="152">
       <c r="A271" s="2">
         <v>319</v>
       </c>
@@ -45075,7 +45050,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="90">
+    <row r="272" spans="1:19" ht="95">
       <c r="A272" s="2">
         <v>320</v>
       </c>
@@ -45134,7 +45109,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="90">
+    <row r="273" spans="1:19" ht="95">
       <c r="A273" s="2">
         <v>321</v>
       </c>
@@ -45193,7 +45168,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="274" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A274" s="10">
         <v>322</v>
       </c>
@@ -45252,7 +45227,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="275" spans="1:19" s="35" customFormat="1" ht="144">
+    <row r="275" spans="1:19" s="35" customFormat="1" ht="152">
       <c r="A275" s="33">
         <v>323</v>
       </c>
@@ -45311,7 +45286,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="108">
+    <row r="276" spans="1:19" ht="114">
       <c r="A276" s="2">
         <v>324</v>
       </c>
@@ -45370,7 +45345,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="277" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="277" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A277" s="10">
         <v>325</v>
       </c>
@@ -45429,7 +45404,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="278" spans="1:19" s="27" customFormat="1" ht="90">
+    <row r="278" spans="1:19" s="27" customFormat="1" ht="95">
       <c r="A278" s="26">
         <v>326</v>
       </c>
@@ -45488,7 +45463,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="108">
+    <row r="279" spans="1:19" ht="114">
       <c r="A279" s="2">
         <v>327</v>
       </c>
@@ -45547,7 +45522,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A280" s="10">
         <v>328</v>
       </c>
@@ -45606,7 +45581,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:19" s="27" customFormat="1" ht="72">
+    <row r="281" spans="1:19" s="27" customFormat="1" ht="76">
       <c r="A281" s="26">
         <v>329</v>
       </c>
@@ -45665,7 +45640,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="72">
+    <row r="282" spans="1:19" ht="76">
       <c r="A282" s="2">
         <v>330</v>
       </c>
@@ -45724,7 +45699,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="72">
+    <row r="283" spans="1:19" ht="76">
       <c r="A283" s="2">
         <v>331</v>
       </c>
@@ -45783,7 +45758,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="284" spans="1:19" s="35" customFormat="1" ht="72">
+    <row r="284" spans="1:19" s="35" customFormat="1" ht="76">
       <c r="A284" s="33">
         <v>332</v>
       </c>
@@ -45842,7 +45817,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="35" customFormat="1" ht="90">
+    <row r="285" spans="1:19" s="35" customFormat="1" ht="95">
       <c r="A285" s="33">
         <v>333</v>
       </c>
@@ -45901,7 +45876,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="72">
+    <row r="286" spans="1:19" ht="76">
       <c r="A286" s="2">
         <v>334</v>
       </c>
@@ -45960,7 +45935,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="287" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="287" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A287" s="24">
         <v>335</v>
       </c>
@@ -46019,7 +45994,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="288" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="288" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A288" s="24">
         <v>336</v>
       </c>
@@ -46078,7 +46053,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="72">
+    <row r="289" spans="1:19" ht="76">
       <c r="A289" s="2">
         <v>337</v>
       </c>
@@ -46137,7 +46112,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="90">
+    <row r="290" spans="1:19" ht="95">
       <c r="A290" s="2">
         <v>338</v>
       </c>
@@ -46196,7 +46171,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="90">
+    <row r="291" spans="1:19" ht="95">
       <c r="A291" s="2">
         <v>339</v>
       </c>
@@ -46255,7 +46230,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="292" spans="1:19" s="21" customFormat="1" ht="54">
+    <row r="292" spans="1:19" s="21" customFormat="1" ht="57">
       <c r="A292" s="19">
         <v>340</v>
       </c>
@@ -46314,7 +46289,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="293" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="293" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A293" s="10">
         <v>341</v>
       </c>
@@ -46373,7 +46348,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="294" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="294" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A294" s="24">
         <v>344</v>
       </c>
@@ -46432,7 +46407,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="72">
+    <row r="295" spans="1:19" ht="76">
       <c r="A295" s="2">
         <v>345</v>
       </c>
@@ -46491,7 +46466,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="296" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="296" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A296" s="10">
         <v>346</v>
       </c>
@@ -46550,7 +46525,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="297" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="297" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A297" s="10">
         <v>347</v>
       </c>
@@ -46609,7 +46584,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="298" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="298" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A298" s="10">
         <v>348</v>
       </c>
@@ -46668,7 +46643,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="299" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="299" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A299" s="10">
         <v>349</v>
       </c>
@@ -46727,7 +46702,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="300" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="300" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A300" s="10">
         <v>350</v>
       </c>
@@ -46786,7 +46761,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="301" spans="1:19" s="35" customFormat="1" ht="108">
+    <row r="301" spans="1:19" s="35" customFormat="1" ht="114">
       <c r="A301" s="33">
         <v>351</v>
       </c>
@@ -46845,7 +46820,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="302" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="302" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A302" s="10">
         <v>352</v>
       </c>
@@ -46904,7 +46879,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="72">
+    <row r="303" spans="1:19" ht="76">
       <c r="A303" s="2">
         <v>353</v>
       </c>
@@ -46963,7 +46938,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="304" spans="1:19" s="11" customFormat="1" ht="180">
+    <row r="304" spans="1:19" s="11" customFormat="1" ht="190">
       <c r="A304" s="10">
         <v>354</v>
       </c>
@@ -47022,7 +46997,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="305" spans="1:19" s="11" customFormat="1" ht="129">
+    <row r="305" spans="1:19" s="11" customFormat="1" ht="135">
       <c r="A305" s="10">
         <v>355</v>
       </c>
@@ -47081,7 +47056,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="306" spans="1:19" s="11" customFormat="1" ht="153">
+    <row r="306" spans="1:19" s="11" customFormat="1" ht="158">
       <c r="A306" s="10">
         <v>356</v>
       </c>
@@ -47140,7 +47115,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="307" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="307" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A307" s="10">
         <v>358</v>
       </c>
@@ -47199,7 +47174,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="308" spans="1:19" s="11" customFormat="1" ht="216">
+    <row r="308" spans="1:19" s="11" customFormat="1" ht="209">
       <c r="A308" s="10">
         <v>359</v>
       </c>
@@ -47258,7 +47233,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="309" spans="1:19" s="25" customFormat="1" ht="163.5">
+    <row r="309" spans="1:19" s="25" customFormat="1" ht="171">
       <c r="A309" s="24">
         <v>360</v>
       </c>
@@ -47317,7 +47292,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="310" spans="1:19" s="25" customFormat="1" ht="163.5">
+    <row r="310" spans="1:19" s="25" customFormat="1" ht="171">
       <c r="A310" s="24">
         <v>361</v>
       </c>
@@ -47376,7 +47351,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="311" spans="1:19" s="25" customFormat="1" ht="162">
+    <row r="311" spans="1:19" s="25" customFormat="1" ht="152">
       <c r="A311" s="24">
         <v>362</v>
       </c>
@@ -47435,7 +47410,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="312" spans="1:19" s="11" customFormat="1" ht="108.75">
+    <row r="312" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A312" s="10">
         <v>363</v>
       </c>
@@ -47494,7 +47469,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="313" spans="1:19" s="11" customFormat="1" ht="108.75">
+    <row r="313" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A313" s="10">
         <v>364</v>
       </c>
@@ -47553,7 +47528,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="314" spans="1:19" s="11" customFormat="1" ht="183">
+    <row r="314" spans="1:19" s="11" customFormat="1" ht="173">
       <c r="A314" s="10">
         <v>365</v>
       </c>
@@ -47612,7 +47587,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="315" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="315" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A315" s="10">
         <v>366</v>
       </c>
@@ -47671,7 +47646,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="316" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="316" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A316" s="10">
         <v>367</v>
       </c>
@@ -47730,7 +47705,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="317" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="317" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A317" s="10">
         <v>371</v>
       </c>
@@ -47789,7 +47764,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="318" spans="1:19" s="11" customFormat="1" ht="111">
+    <row r="318" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A318" s="10">
         <v>372</v>
       </c>
@@ -47848,7 +47823,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="319" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="319" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A319" s="10">
         <v>375</v>
       </c>
@@ -47907,7 +47882,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="320" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="320" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A320" s="10">
         <v>376</v>
       </c>
@@ -47966,7 +47941,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="321" spans="1:19" s="11" customFormat="1" ht="165">
+    <row r="321" spans="1:19" s="11" customFormat="1" ht="171">
       <c r="A321" s="10">
         <v>377</v>
       </c>
@@ -48025,7 +48000,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="322" spans="1:19" s="25" customFormat="1" ht="201">
+    <row r="322" spans="1:19" s="25" customFormat="1" ht="211">
       <c r="A322" s="24">
         <v>378</v>
       </c>
@@ -48084,7 +48059,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="323" spans="1:19" s="27" customFormat="1" ht="108">
+    <row r="323" spans="1:19" s="27" customFormat="1" ht="114">
       <c r="A323" s="26">
         <v>379</v>
       </c>
@@ -48143,7 +48118,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="324" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="324" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A324" s="10">
         <v>381</v>
       </c>
@@ -48202,7 +48177,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="325" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="325" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A325" s="10">
         <v>382</v>
       </c>
@@ -48261,7 +48236,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="326" spans="1:19" s="11" customFormat="1" ht="110.25">
+    <row r="326" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A326" s="10">
         <v>383</v>
       </c>
@@ -48320,7 +48295,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="327" spans="1:19" s="25" customFormat="1" ht="126">
+    <row r="327" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A327" s="24">
         <v>384</v>
       </c>
@@ -48379,7 +48354,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="328" spans="1:19" s="25" customFormat="1" ht="144">
+    <row r="328" spans="1:19" s="25" customFormat="1" ht="152">
       <c r="A328" s="24">
         <v>386</v>
       </c>
@@ -48438,7 +48413,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="329" spans="1:19" s="25" customFormat="1" ht="126.75">
+    <row r="329" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A329" s="24">
         <v>388</v>
       </c>
@@ -48497,7 +48472,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="330" spans="1:19" s="25" customFormat="1" ht="126">
+    <row r="330" spans="1:19" s="25" customFormat="1" ht="133">
       <c r="A330" s="24">
         <v>389</v>
       </c>
@@ -48556,7 +48531,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="331" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="331" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A331" s="10">
         <v>390</v>
       </c>
@@ -48615,7 +48590,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="332" spans="1:19" s="25" customFormat="1" ht="127.5">
+    <row r="332" spans="1:19" s="25" customFormat="1" ht="133">
       <c r="A332" s="24">
         <v>391</v>
       </c>
@@ -48674,7 +48649,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="333" spans="1:19" s="11" customFormat="1" ht="202.5">
+    <row r="333" spans="1:19" s="11" customFormat="1" ht="192">
       <c r="A333" s="10">
         <v>392</v>
       </c>
@@ -48733,7 +48708,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="334" spans="1:19" s="25" customFormat="1" ht="162">
+    <row r="334" spans="1:19" s="25" customFormat="1" ht="171">
       <c r="A334" s="24">
         <v>394</v>
       </c>
@@ -48792,7 +48767,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="335" spans="1:19" s="25" customFormat="1" ht="135">
+    <row r="335" spans="1:19" s="25" customFormat="1" ht="139">
       <c r="A335" s="24">
         <v>395</v>
       </c>
@@ -48851,7 +48826,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="336" spans="1:19" s="11" customFormat="1" ht="92.25">
+    <row r="336" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A336" s="10">
         <v>396</v>
       </c>
@@ -48910,7 +48885,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="337" spans="1:19" s="11" customFormat="1" ht="162">
+    <row r="337" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A337" s="10">
         <v>397</v>
       </c>
@@ -48969,7 +48944,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="338" spans="1:19" s="11" customFormat="1" ht="130.5">
+    <row r="338" spans="1:19" s="11" customFormat="1" ht="135">
       <c r="A338" s="10">
         <v>398</v>
       </c>
@@ -49028,7 +49003,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="339" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="339" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A339" s="10">
         <v>399</v>
       </c>
@@ -49087,7 +49062,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="340" spans="1:19" s="11" customFormat="1" ht="132.75">
+    <row r="340" spans="1:19" s="11" customFormat="1" ht="137">
       <c r="A340" s="10">
         <v>400</v>
       </c>
@@ -49146,7 +49121,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="341" spans="1:19" s="25" customFormat="1" ht="150">
+    <row r="341" spans="1:19" s="25" customFormat="1" ht="156">
       <c r="A341" s="24">
         <v>401</v>
       </c>
@@ -49205,7 +49180,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="342" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="342" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A342" s="10">
         <v>402</v>
       </c>
@@ -49264,7 +49239,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="343" spans="1:19" s="25" customFormat="1" ht="126.75">
+    <row r="343" spans="1:19" s="25" customFormat="1" ht="133">
       <c r="A343" s="24">
         <v>403</v>
       </c>
@@ -49323,7 +49298,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="344" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="344" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A344" s="10">
         <v>404</v>
       </c>
@@ -49382,7 +49357,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="345" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="345" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A345" s="10">
         <v>405</v>
       </c>
@@ -49441,7 +49416,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="346" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="346" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A346" s="10">
         <v>406</v>
       </c>
@@ -49500,7 +49475,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="347" spans="1:19" s="11" customFormat="1" ht="111">
+    <row r="347" spans="1:19" s="11" customFormat="1" ht="116">
       <c r="A347" s="10">
         <v>407</v>
       </c>
@@ -49559,7 +49534,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="348" spans="1:19" s="11" customFormat="1" ht="136.5">
+    <row r="348" spans="1:19" s="11" customFormat="1" ht="139">
       <c r="A348" s="10">
         <v>408</v>
       </c>
@@ -49618,7 +49593,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="349" spans="1:19" s="11" customFormat="1" ht="171">
+    <row r="349" spans="1:19" s="11" customFormat="1" ht="177">
       <c r="A349" s="10">
         <v>409</v>
       </c>
@@ -49677,7 +49652,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="350" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="350" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A350" s="10">
         <v>410</v>
       </c>
@@ -49736,7 +49711,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="351" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="351" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A351" s="10">
         <v>411</v>
       </c>
@@ -49795,7 +49770,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="352" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="352" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A352" s="10">
         <v>412</v>
       </c>
@@ -49854,7 +49829,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="353" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="353" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A353" s="10">
         <v>413</v>
       </c>
@@ -49913,7 +49888,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="354" spans="1:19" s="25" customFormat="1" ht="108">
+    <row r="354" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A354" s="24">
         <v>414</v>
       </c>
@@ -49972,7 +49947,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="355" spans="1:19" s="25" customFormat="1" ht="108">
+    <row r="355" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A355" s="24">
         <v>415</v>
       </c>
@@ -50031,7 +50006,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="356" spans="1:19" s="11" customFormat="1" ht="117">
+    <row r="356" spans="1:19" s="11" customFormat="1" ht="118">
       <c r="A356" s="10">
         <v>416</v>
       </c>
@@ -50090,7 +50065,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="357" spans="1:19" s="11" customFormat="1" ht="72">
+    <row r="357" spans="1:19" s="11" customFormat="1" ht="76">
       <c r="A357" s="10">
         <v>417</v>
       </c>
@@ -50149,7 +50124,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="358" spans="1:19" s="11" customFormat="1" ht="129">
+    <row r="358" spans="1:19" s="11" customFormat="1" ht="135">
       <c r="A358" s="10">
         <v>418</v>
       </c>
@@ -50208,7 +50183,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="359" spans="1:19" s="25" customFormat="1" ht="111.75">
+    <row r="359" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A359" s="24">
         <v>419</v>
       </c>
@@ -50267,7 +50242,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="360" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="360" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A360" s="10">
         <v>420</v>
       </c>
@@ -50326,7 +50301,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="361" spans="1:19" s="11" customFormat="1" ht="129">
+    <row r="361" spans="1:19" s="11" customFormat="1" ht="135">
       <c r="A361" s="10">
         <v>421</v>
       </c>
@@ -50385,7 +50360,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="362" spans="1:19" s="11" customFormat="1" ht="111">
+    <row r="362" spans="1:19" s="11" customFormat="1" ht="116">
       <c r="A362" s="10">
         <v>422</v>
       </c>
@@ -50444,7 +50419,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="363" spans="1:19" s="25" customFormat="1" ht="198">
+    <row r="363" spans="1:19" s="25" customFormat="1" ht="190">
       <c r="A363" s="24">
         <v>423</v>
       </c>
@@ -50503,7 +50478,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="364" spans="1:19" s="11" customFormat="1" ht="207.75">
+    <row r="364" spans="1:19" s="11" customFormat="1" ht="196">
       <c r="A364" s="10">
         <v>424</v>
       </c>
@@ -50562,7 +50537,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="365" spans="1:19" s="11" customFormat="1" ht="90">
+    <row r="365" spans="1:19" s="11" customFormat="1" ht="95">
       <c r="A365" s="10">
         <v>425</v>
       </c>
@@ -50621,7 +50596,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="366" spans="1:19" s="11" customFormat="1" ht="180">
+    <row r="366" spans="1:19" s="11" customFormat="1" ht="171">
       <c r="A366" s="10">
         <v>426</v>
       </c>
@@ -50680,7 +50655,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="367" spans="1:19" s="11" customFormat="1" ht="111">
+    <row r="367" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A367" s="10">
         <v>427</v>
       </c>
@@ -50739,7 +50714,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="368" spans="1:19" s="11" customFormat="1" ht="150">
+    <row r="368" spans="1:19" s="11" customFormat="1" ht="156">
       <c r="A368" s="10">
         <v>428</v>
       </c>
@@ -50798,7 +50773,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="369" spans="1:19" s="25" customFormat="1" ht="114.75">
+    <row r="369" spans="1:19" s="25" customFormat="1" ht="118">
       <c r="A369" s="24">
         <v>429</v>
       </c>
@@ -50857,7 +50832,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="370" spans="1:19" s="25" customFormat="1" ht="129">
+    <row r="370" spans="1:19" s="25" customFormat="1" ht="116">
       <c r="A370" s="24">
         <v>430</v>
       </c>
@@ -50916,7 +50891,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="371" spans="1:19" s="11" customFormat="1" ht="111">
+    <row r="371" spans="1:19" s="11" customFormat="1" ht="116">
       <c r="A371" s="10">
         <v>431</v>
       </c>
@@ -50975,7 +50950,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="372" spans="1:19" s="25" customFormat="1" ht="126">
+    <row r="372" spans="1:19" s="25" customFormat="1" ht="133">
       <c r="A372" s="24">
         <v>432</v>
       </c>
@@ -51034,7 +51009,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="373" spans="1:19" s="25" customFormat="1" ht="108">
+    <row r="373" spans="1:19" s="25" customFormat="1" ht="95">
       <c r="A373" s="24">
         <v>433</v>
       </c>
@@ -51093,7 +51068,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="374" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="374" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A374" s="10">
         <v>434</v>
       </c>
@@ -51152,7 +51127,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="375" spans="1:19" s="25" customFormat="1" ht="108">
+    <row r="375" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A375" s="24">
         <v>435</v>
       </c>
@@ -51211,7 +51186,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="376" spans="1:19" s="25" customFormat="1" ht="95.25">
+    <row r="376" spans="1:19" s="25" customFormat="1" ht="98">
       <c r="A376" s="24">
         <v>436</v>
       </c>
@@ -51270,7 +51245,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="377" spans="1:19" s="25" customFormat="1" ht="90">
+    <row r="377" spans="1:19" s="25" customFormat="1" ht="95">
       <c r="A377" s="24">
         <v>437</v>
       </c>
@@ -51329,7 +51304,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="378" spans="1:19" s="25" customFormat="1" ht="126">
+    <row r="378" spans="1:19" s="25" customFormat="1" ht="133">
       <c r="A378" s="24">
         <v>438</v>
       </c>
@@ -51388,7 +51363,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="379" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="379" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A379" s="10">
         <v>439</v>
       </c>
@@ -51447,7 +51422,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="380" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="380" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A380" s="24">
         <v>440</v>
       </c>
@@ -51506,7 +51481,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="381" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="381" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A381" s="24">
         <v>441</v>
       </c>
@@ -51565,7 +51540,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="382" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="382" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A382" s="24">
         <v>442</v>
       </c>
@@ -51624,7 +51599,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="383" spans="1:19" s="25" customFormat="1" ht="183">
+    <row r="383" spans="1:19" s="25" customFormat="1" ht="192">
       <c r="A383" s="24">
         <v>443</v>
       </c>
@@ -51683,7 +51658,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="384" spans="1:19" s="11" customFormat="1" ht="144.75">
+    <row r="384" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A384" s="10">
         <v>444</v>
       </c>
@@ -51742,7 +51717,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="385" spans="1:19" s="25" customFormat="1" ht="108">
+    <row r="385" spans="1:19" s="25" customFormat="1" ht="114">
       <c r="A385" s="24">
         <v>446</v>
       </c>
@@ -51801,7 +51776,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="386" spans="1:19" s="25" customFormat="1" ht="149.25">
+    <row r="386" spans="1:19" s="25" customFormat="1" ht="154">
       <c r="A386" s="24">
         <v>447</v>
       </c>
@@ -51860,7 +51835,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="387" spans="1:19" s="25" customFormat="1" ht="149.25">
+    <row r="387" spans="1:19" s="25" customFormat="1" ht="154">
       <c r="A387" s="24">
         <v>448</v>
       </c>
@@ -51919,7 +51894,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="388" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="388" spans="1:19" s="11" customFormat="1" ht="114">
       <c r="A388" s="10">
         <v>449</v>
       </c>
@@ -51978,7 +51953,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="389" spans="1:19" s="11" customFormat="1" ht="93">
+    <row r="389" spans="1:19" s="11" customFormat="1" ht="97">
       <c r="A389" s="10">
         <v>450</v>
       </c>
@@ -52037,7 +52012,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="390" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="390" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A390" s="10">
         <v>451</v>
       </c>
@@ -52096,7 +52071,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="391" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="391" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A391" s="10">
         <v>452</v>
       </c>
@@ -52155,7 +52130,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="392" spans="1:19" s="25" customFormat="1" ht="72">
+    <row r="392" spans="1:19" s="25" customFormat="1" ht="76">
       <c r="A392" s="24">
         <v>453</v>
       </c>
@@ -52214,7 +52189,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="393" spans="1:19" s="11" customFormat="1" ht="108">
+    <row r="393" spans="1:19" s="11" customFormat="1" ht="99">
       <c r="A393" s="10">
         <v>454</v>
       </c>
@@ -52273,7 +52248,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="394" spans="1:19" s="11" customFormat="1" ht="144">
+    <row r="394" spans="1:19" s="11" customFormat="1" ht="152">
       <c r="A394" s="10">
         <v>455</v>
       </c>
@@ -52332,7 +52307,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="395" spans="1:19" s="11" customFormat="1" ht="150.75">
+    <row r="395" spans="1:19" s="11" customFormat="1" ht="137">
       <c r="A395" s="10">
         <v>456</v>
       </c>
@@ -52391,7 +52366,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="396" spans="1:19" s="11" customFormat="1" ht="126">
+    <row r="396" spans="1:19" s="11" customFormat="1" ht="133">
       <c r="A396" s="10">
         <v>457</v>
       </c>
@@ -52568,97 +52543,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6D2C2A-0E8B-4456-8107-4D925B8C2AB1}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="21" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="35" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="38" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
         <v>1476</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="41" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25">
-      <c r="A4" s="42" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="43" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="44" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
